--- a/Assets/Excel/LanguageConfig.xlsx
+++ b/Assets/Excel/LanguageConfig.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
-  <si>
-    <t>Key</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+  <si>
+    <t>注释行</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Chinese</t>
@@ -27,6 +30,9 @@
     <t>English</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>s_SagaMode</t>
   </si>
   <si>
@@ -304,9 +310,6 @@
   </si>
   <si>
     <t>Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -314,11 +317,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -338,6 +341,105 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,88 +461,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -449,25 +469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,31 +485,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,151 +635,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,80 +676,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -769,7 +698,81 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,130 +799,130 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -927,6 +930,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -937,9 +943,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,473 +1293,486 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="15.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F8"/>
+      <c r="G8"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
